--- a/INTLINE/data/134/DEUSTATIS/National accounts - Compensation of employees(national concept) years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Compensation of employees(national concept) years.xlsx
@@ -162,7 +162,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:35:50</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:41:26</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1323,7 @@
         <v>1852.105</v>
       </c>
       <c r="AG5" t="n" s="11">
-        <v>1920.413</v>
+        <v>1921.378</v>
       </c>
     </row>
     <row r="6">
@@ -1424,7 +1424,7 @@
         <v>338.048</v>
       </c>
       <c r="AG6" t="n" s="11">
-        <v>349.239</v>
+        <v>349.35</v>
       </c>
     </row>
     <row r="7">
@@ -1525,7 +1525,7 @@
         <v>1514.057</v>
       </c>
       <c r="AG7" t="n" s="11">
-        <v>1571.174</v>
+        <v>1572.028</v>
       </c>
     </row>
     <row r="8">
@@ -1626,7 +1626,7 @@
         <v>492.719</v>
       </c>
       <c r="AG8" t="n" s="11">
-        <v>506.963</v>
+        <v>506.735</v>
       </c>
     </row>
     <row r="9">
@@ -1727,7 +1727,7 @@
         <v>249.486</v>
       </c>
       <c r="AG9" t="n" s="11">
-        <v>261.547</v>
+        <v>261.704</v>
       </c>
     </row>
     <row r="10">
@@ -1828,7 +1828,7 @@
         <v>243.233</v>
       </c>
       <c r="AG10" t="n" s="11">
-        <v>245.416</v>
+        <v>245.031</v>
       </c>
     </row>
     <row r="11">
@@ -1929,7 +1929,7 @@
         <v>1021.338</v>
       </c>
       <c r="AG11" t="n" s="11">
-        <v>1064.211</v>
+        <v>1065.293</v>
       </c>
     </row>
     <row r="12">
@@ -2030,7 +2030,7 @@
         <v>3786.0</v>
       </c>
       <c r="AG12" t="n" s="11">
-        <v>3915.0</v>
+        <v>3917.0</v>
       </c>
     </row>
     <row r="13">
@@ -2131,7 +2131,7 @@
         <v>3095.0</v>
       </c>
       <c r="AG13" t="n" s="11">
-        <v>3203.0</v>
+        <v>3205.0</v>
       </c>
     </row>
     <row r="14">
@@ -2232,7 +2232,7 @@
         <v>2088.0</v>
       </c>
       <c r="AG14" t="n" s="11">
-        <v>2170.0</v>
+        <v>2172.0</v>
       </c>
     </row>
     <row r="15">
@@ -2253,7 +2253,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:35:54&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:41:30&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - Compensation of employees(national concept) years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Compensation of employees(national concept) years.xlsx
@@ -162,7 +162,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:41:26</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 05:32:52</t>
   </si>
 </sst>
 </file>
@@ -2253,7 +2253,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:41:30&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 05:32:56&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>